--- a/data/fp32_utilization.xlsx
+++ b/data/fp32_utilization.xlsx
@@ -1,14 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE31642E-78B1-4770-BC64-176CFA745318}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,15 +22,62 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>1080 Ti</t>
+  </si>
+  <si>
+    <t>Titan Xp</t>
+  </si>
+  <si>
+    <t>P4000</t>
+  </si>
+  <si>
+    <t>V100-SXM2</t>
+  </si>
+  <si>
+    <t>InceptionV3</t>
+  </si>
+  <si>
+    <t>ResNet-50</t>
+  </si>
+  <si>
+    <t>Faster RCNN</t>
+  </si>
+  <si>
+    <t>Sockeye</t>
+  </si>
+  <si>
+    <t>NMT</t>
+  </si>
+  <si>
+    <t>Transformer</t>
+  </si>
+  <si>
+    <t>A3C</t>
+  </si>
+  <si>
+    <t>WGAN</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +96,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +135,1392 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P4000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>InceptionV3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ResNet-50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Faster RCNN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NMT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sockeye</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Transformer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>WGAN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>A3C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.89178599999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93574100000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70610970809999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59799800000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61131599999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.931778</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6247379435</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55623259229999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0942-44B6-A50D-45CE75AEA3C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1080 Ti</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>InceptionV3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ResNet-50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Faster RCNN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NMT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sockeye</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Transformer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>WGAN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>A3C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.92154700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87770700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61899779290000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.431703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66828799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88119400000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52771179349999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4875979755</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0942-44B6-A50D-45CE75AEA3C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Titan Xp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>InceptionV3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ResNet-50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Faster RCNN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NMT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sockeye</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Transformer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>WGAN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>A3C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.83547099999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86900500000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65749758479999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38830100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31268099999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85993900000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53231302489999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51242132269999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0942-44B6-A50D-45CE75AEA3C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V100-SXM2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>InceptionV3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ResNet-50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Faster RCNN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NMT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sockeye</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Transformer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>WGAN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>A3C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.69909900000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.619197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65138415859999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27987400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27019500000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68349599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50091406859999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36565119369999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0942-44B6-A50D-45CE75AEA3C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="500655824"/>
+        <c:axId val="500656152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="500655824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="500656152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="500656152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FP32 Utilization</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="500655824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>577849</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>60324</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7AC5A6B-9B73-4B60-9F57-169F1C9C4B8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>P4000</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>1080 Ti</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>Titan Xp</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>V100-SXM2</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>InceptionV3</v>
+          </cell>
+          <cell r="B2">
+            <v>0.89178599999999997</v>
+          </cell>
+          <cell r="C2">
+            <v>0.92154700000000001</v>
+          </cell>
+          <cell r="D2">
+            <v>0.83547099999999996</v>
+          </cell>
+          <cell r="E2">
+            <v>0.69909900000000003</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>ResNet-50</v>
+          </cell>
+          <cell r="B3">
+            <v>0.93574100000000004</v>
+          </cell>
+          <cell r="C3">
+            <v>0.87770700000000001</v>
+          </cell>
+          <cell r="D3">
+            <v>0.86900500000000003</v>
+          </cell>
+          <cell r="E3">
+            <v>0.619197</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Faster RCNN</v>
+          </cell>
+          <cell r="B4">
+            <v>0.92008199999999996</v>
+          </cell>
+          <cell r="C4">
+            <v>0.91168300000000002</v>
+          </cell>
+          <cell r="D4">
+            <v>0.809531</v>
+          </cell>
+          <cell r="E4">
+            <v>0.72190500000000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>NMT</v>
+          </cell>
+          <cell r="B5">
+            <v>0.59799800000000003</v>
+          </cell>
+          <cell r="C5">
+            <v>0.431703</v>
+          </cell>
+          <cell r="D5">
+            <v>0.38830100000000001</v>
+          </cell>
+          <cell r="E5">
+            <v>0.27987400000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Sockeye</v>
+          </cell>
+          <cell r="B6">
+            <v>0.61131599999999997</v>
+          </cell>
+          <cell r="C6">
+            <v>0.66828799999999999</v>
+          </cell>
+          <cell r="D6">
+            <v>0.31268099999999999</v>
+          </cell>
+          <cell r="E6">
+            <v>0.27019500000000002</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Transformer</v>
+          </cell>
+          <cell r="B7">
+            <v>0.931778</v>
+          </cell>
+          <cell r="C7">
+            <v>0.88119400000000003</v>
+          </cell>
+          <cell r="D7">
+            <v>0.85993900000000001</v>
+          </cell>
+          <cell r="E7">
+            <v>0.68349599999999999</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>WGAN</v>
+          </cell>
+          <cell r="B8">
+            <v>0.95475900000000002</v>
+          </cell>
+          <cell r="C8">
+            <v>0.76071900000000003</v>
+          </cell>
+          <cell r="D8">
+            <v>0.68729399999999996</v>
+          </cell>
+          <cell r="E8">
+            <v>0.75006600000000001</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>A3C</v>
+          </cell>
+          <cell r="B9">
+            <v>0.25419999999999998</v>
+          </cell>
+          <cell r="C9">
+            <v>0.17544499999999999</v>
+          </cell>
+          <cell r="D9">
+            <v>0.16666400000000001</v>
+          </cell>
+          <cell r="E9">
+            <v>0.12116</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1785,171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.89178599999999997</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.92154700000000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.83547099999999996</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.69909900000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.93574100000000004</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.87770700000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.86900500000000003</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.619197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.70610970809999996</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.61899779290000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.65749758479999998</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.65138415859999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.59799800000000003</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.431703</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.38830100000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.27987400000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.61131599999999997</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.66828799999999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.31268099999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.27019500000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.931778</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.88119400000000003</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.85993900000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.68349599999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.6247379435</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.52771179349999997</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.53231302489999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.50091406859999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.55623259229999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.4875979755</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.51242132269999996</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.36565119369999999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>